--- a/src/main/java/com/jostens/qa/testdata/Jostens.xlsx
+++ b/src/main/java/com/jostens/qa/testdata/Jostens.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="213">
   <si>
     <t>Website</t>
   </si>
@@ -584,6 +584,87 @@
   </si>
   <si>
     <t>Success - 2020/12/19 02:34:36</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 11:58:30</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 11:58:33</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 11:58:36</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 11:58:39</t>
+  </si>
+  <si>
+    <t>Failure - 2020/12/19 11:59:05</t>
+  </si>
+  <si>
+    <t>Failure - 2020/12/19 11:59:17</t>
+  </si>
+  <si>
+    <t>Failure - 2020/12/19 11:59:30</t>
+  </si>
+  <si>
+    <t>Failure - 2020/12/19 11:59:32</t>
+  </si>
+  <si>
+    <t>Failure - 2020/12/19 11:59:33</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 11:59:48</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 11:59:54</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 12:00:01</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 12:00:02</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 12:00:12</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 12:01:53</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 12:01:56</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 12:01:59</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 12:02:01</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 12:02:27</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 12:02:48</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 12:03:09</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 12:03:11</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 12:03:21</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 12:03:32</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 12:03:39</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 12:03:40</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 12:03:50</t>
   </si>
 </sst>
 </file>
@@ -976,7 +1057,7 @@
         <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -999,7 +1080,7 @@
         <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +1126,7 @@
         <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1056,7 +1137,7 @@
         <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1150,7 +1231,7 @@
         <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1185,7 +1266,7 @@
         <v>82</v>
       </c>
       <c r="K3" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1220,7 +1301,7 @@
         <v>82</v>
       </c>
       <c r="K4" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -1288,7 +1369,7 @@
         <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1311,7 +1392,7 @@
         <v>105</v>
       </c>
       <c r="G3" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1334,7 +1415,7 @@
         <v>105</v>
       </c>
       <c r="G4" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1465,7 +1546,7 @@
         <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1515,7 +1596,7 @@
         <v>53</v>
       </c>
       <c r="P3" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1565,7 +1646,7 @@
         <v>53</v>
       </c>
       <c r="P4" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -1622,7 +1703,7 @@
         <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>115</v>

--- a/src/main/java/com/jostens/qa/testdata/Jostens.xlsx
+++ b/src/main/java/com/jostens/qa/testdata/Jostens.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="227">
   <si>
     <t>Website</t>
   </si>
@@ -665,6 +665,48 @@
   </si>
   <si>
     <t>Success - 2020/12/19 12:03:50</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 16:28:07</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 16:28:11</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 16:28:18</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 16:28:21</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 16:28:48</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 16:29:10</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 16:29:33</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 16:29:35</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 16:29:36</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 16:29:46</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 16:29:53</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 16:30:01</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 16:30:02</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 16:30:12</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1099,7 @@
         <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1080,7 +1122,7 @@
         <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -1126,7 +1168,7 @@
         <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1137,7 +1179,7 @@
         <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -1231,7 +1273,7 @@
         <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1266,7 +1308,7 @@
         <v>82</v>
       </c>
       <c r="K3" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1301,7 +1343,7 @@
         <v>82</v>
       </c>
       <c r="K4" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -1369,7 +1411,7 @@
         <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1392,7 +1434,7 @@
         <v>105</v>
       </c>
       <c r="G3" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1415,7 +1457,7 @@
         <v>105</v>
       </c>
       <c r="G4" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1588,7 @@
         <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1596,7 +1638,7 @@
         <v>53</v>
       </c>
       <c r="P3" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1646,7 +1688,7 @@
         <v>53</v>
       </c>
       <c r="P4" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -1703,7 +1745,7 @@
         <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>115</v>

--- a/src/main/java/com/jostens/qa/testdata/Jostens.xlsx
+++ b/src/main/java/com/jostens/qa/testdata/Jostens.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="240">
   <si>
     <t>Website</t>
   </si>
@@ -707,6 +707,45 @@
   </si>
   <si>
     <t>Success - 2020/12/19 16:30:12</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 16:58:57</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 16:59:00</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 16:59:03</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 16:59:06</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 16:59:32</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 16:59:54</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 17:00:15</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 17:00:17</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 17:00:27</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 17:00:38</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 17:00:45</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 17:00:46</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/19 17:00:56</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1138,7 @@
         <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1122,7 +1161,7 @@
         <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1207,7 @@
         <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1179,7 +1218,7 @@
         <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1312,7 @@
         <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1308,7 +1347,7 @@
         <v>82</v>
       </c>
       <c r="K3" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1343,7 +1382,7 @@
         <v>82</v>
       </c>
       <c r="K4" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -1411,7 +1450,7 @@
         <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1434,7 +1473,7 @@
         <v>105</v>
       </c>
       <c r="G3" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1457,7 +1496,7 @@
         <v>105</v>
       </c>
       <c r="G4" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -1588,7 +1627,7 @@
         <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1638,7 +1677,7 @@
         <v>53</v>
       </c>
       <c r="P3" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1688,7 +1727,7 @@
         <v>53</v>
       </c>
       <c r="P4" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -1745,7 +1784,7 @@
         <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>115</v>

--- a/src/main/java/com/jostens/qa/testdata/Jostens.xlsx
+++ b/src/main/java/com/jostens/qa/testdata/Jostens.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CE308C02-4E1E-43A5-A163-7D8CCED87077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{55005D65-C388-4699-8913-06C623D3CFEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21990" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="22020" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="190">
   <si>
     <t>Website</t>
   </si>
@@ -232,520 +232,370 @@
     <t>Chaska High School Chaska, MN Products - Graduation Products from Jostens</t>
   </si>
   <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Next Level Unisex Triblend Long Sleeve Pullover Hoodie</t>
+  </si>
+  <si>
+    <t>Next Level Unisex Triblend Long Sleeve Pullover Hoodie - Jostens School Store</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>$33.95</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Center Chest</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Black/White</t>
+  </si>
+  <si>
+    <t>Ashlyn</t>
+  </si>
+  <si>
+    <t>Ambrose</t>
+  </si>
+  <si>
+    <t>Cynthia</t>
+  </si>
+  <si>
+    <t>Ambrosia</t>
+  </si>
+  <si>
+    <t>62310 Lake View Road</t>
+  </si>
+  <si>
+    <t>Madison Lake</t>
+  </si>
+  <si>
+    <t>56063</t>
+  </si>
+  <si>
+    <t>7123635519</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>7123632575</t>
+  </si>
+  <si>
+    <t>409 Beachcomber Drive</t>
+  </si>
+  <si>
+    <t>Lake Park</t>
+  </si>
+  <si>
+    <t>51347</t>
+  </si>
+  <si>
+    <t>Chaska Middle School East</t>
+  </si>
+  <si>
+    <t>Chaska Middle School East Chaska, MN Products - Graduation Products from Jostens</t>
+  </si>
+  <si>
+    <t>3 Ply Sublimated Mask</t>
+  </si>
+  <si>
+    <t>L/XL</t>
+  </si>
+  <si>
+    <t>Mask Center</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>$18.95</t>
+  </si>
+  <si>
+    <t>$77.85</t>
+  </si>
+  <si>
+    <t>Failure - 2020/12/12 14:45:54</t>
+  </si>
+  <si>
+    <t>MorningsideMustang124</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 08:54:02</t>
+  </si>
+  <si>
+    <t>Credit Card Number</t>
+  </si>
+  <si>
+    <t>Cardholder Name</t>
+  </si>
+  <si>
+    <t>Security Code</t>
+  </si>
+  <si>
+    <t>Expected Error Message</t>
+  </si>
+  <si>
+    <t>5555555555554444</t>
+  </si>
+  <si>
+    <t>Cynthia Ambrosia</t>
+  </si>
+  <si>
+    <t>096</t>
+  </si>
+  <si>
+    <t>Invalid CC Number</t>
+  </si>
+  <si>
+    <t>Failure - 2020/12/13 11:29:28</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 15:55:38</t>
+  </si>
+  <si>
+    <t>Failure - 2020/12/13 15:55:46</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 15:55:53</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 15:55:58</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 15:56:35</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 15:57:02</t>
+  </si>
+  <si>
+    <t>Failure - 2020/12/13 15:57:12</t>
+  </si>
+  <si>
+    <t>Failure - 2020/12/13 15:57:18</t>
+  </si>
+  <si>
+    <t>Failure - 2020/12/13 15:57:20</t>
+  </si>
+  <si>
+    <t>Failure - 2020/12/13 15:57:22</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 15:57:48</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 15:58:08</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 15:58:31</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 15:58:45</t>
+  </si>
+  <si>
+    <t>3 Ply Sublimated Mask - Jostens School Store</t>
+  </si>
+  <si>
     <t>Steven VerMulm</t>
   </si>
   <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>Next Level Unisex Triblend Long Sleeve Pullover Hoodie</t>
-  </si>
-  <si>
-    <t>Next Level Unisex Triblend Long Sleeve Pullover Hoodie - Jostens School Store</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>$33.95</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Center Chest</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Black/White</t>
-  </si>
-  <si>
-    <t>Ashlyn</t>
-  </si>
-  <si>
-    <t>Ambrose</t>
-  </si>
-  <si>
-    <t>Cynthia</t>
-  </si>
-  <si>
-    <t>Ambrosia</t>
-  </si>
-  <si>
-    <t>62310 Lake View Road</t>
-  </si>
-  <si>
-    <t>Madison Lake</t>
-  </si>
-  <si>
-    <t>56063</t>
-  </si>
-  <si>
-    <t>7123635519</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>7123632575</t>
-  </si>
-  <si>
-    <t>409 Beachcomber Drive</t>
-  </si>
-  <si>
-    <t>Lake Park</t>
-  </si>
-  <si>
-    <t>51347</t>
-  </si>
-  <si>
-    <t>Chaska Middle School East</t>
-  </si>
-  <si>
-    <t>Chaska Middle School East Chaska, MN Products - Graduation Products from Jostens</t>
-  </si>
-  <si>
-    <t>3 Ply Sublimated Mask</t>
-  </si>
-  <si>
-    <t>3 Ply Sublimated Mask - Jostens School Store</t>
-  </si>
-  <si>
-    <t>L/XL</t>
-  </si>
-  <si>
-    <t>Mask Center</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>$18.95</t>
-  </si>
-  <si>
-    <t>$77.85</t>
-  </si>
-  <si>
-    <t>Failure - 2020/12/12 14:45:54</t>
-  </si>
-  <si>
-    <t>MorningsideMustang124</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/13 08:54:02</t>
-  </si>
-  <si>
-    <t>Credit Card Number</t>
-  </si>
-  <si>
-    <t>Cardholder Name</t>
-  </si>
-  <si>
-    <t>Security Code</t>
-  </si>
-  <si>
-    <t>Expected Error Message</t>
-  </si>
-  <si>
-    <t>5555555555554444</t>
-  </si>
-  <si>
-    <t>Cynthia Ambrosia</t>
-  </si>
-  <si>
-    <t>096</t>
-  </si>
-  <si>
-    <t>Invalid CC Number</t>
-  </si>
-  <si>
-    <t>Failure - 2020/12/13 11:29:28</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/14 14:40:12</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/14 14:40:19</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/14 14:40:23</t>
-  </si>
-  <si>
-    <t>Failure - 2020/12/14 14:40:25</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/14 14:40:58</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/14 14:41:19</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/14 14:41:41</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/14 14:41:43</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/14 14:41:55</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/14 14:42:03</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/14 14:42:12</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/14 14:42:23</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/14 14:45:55</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/14 14:46:00</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/14 14:46:03</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/14 14:46:07</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/14 14:46:36</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/14 14:46:56</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/14 14:47:17</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/14 14:47:19</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/14 14:47:20</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/14 14:47:30</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/14 14:47:37</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/14 14:47:45</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/14 14:47:46</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/14 14:47:56</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/18 10:26:19</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/18 10:26:24</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/18 10:26:27</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/18 10:26:30</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/18 10:26:55</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/18 10:27:16</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/18 10:27:37</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/18 10:27:39</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/18 10:27:40</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/18 10:27:50</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/18 10:28:01</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/18 10:28:12</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/18 10:28:13</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/18 10:28:23</t>
-  </si>
-  <si>
-    <t>Failure - 2020/12/19 02:24:42</t>
-  </si>
-  <si>
-    <t>Failure - 2020/12/19 02:24:47</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 02:24:51</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 02:24:54</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 02:25:22</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 02:25:43</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 02:26:04</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 02:26:06</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 02:26:07</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 02:26:17</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 02:26:28</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 02:26:35</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 02:26:36</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 02:26:46</t>
-  </si>
-  <si>
-    <t>Failure - 2020/12/19 02:32:43</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 02:32:47</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 02:32:50</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 02:32:53</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 02:33:19</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 02:33:41</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 02:34:01</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 02:34:03</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 02:34:04</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 02:34:12</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 02:34:19</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 02:34:26</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 02:34:27</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 02:34:36</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 11:58:30</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 11:58:33</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 11:58:36</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 11:58:39</t>
-  </si>
-  <si>
-    <t>Failure - 2020/12/19 11:59:05</t>
-  </si>
-  <si>
-    <t>Failure - 2020/12/19 11:59:17</t>
-  </si>
-  <si>
-    <t>Failure - 2020/12/19 11:59:30</t>
-  </si>
-  <si>
-    <t>Failure - 2020/12/19 11:59:32</t>
-  </si>
-  <si>
-    <t>Failure - 2020/12/19 11:59:33</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 11:59:48</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 11:59:54</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 12:00:01</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 12:00:02</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 12:00:12</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 12:01:53</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 12:01:56</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 12:01:59</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 12:02:01</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 12:02:27</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 12:02:48</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 12:03:09</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 12:03:11</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 12:03:21</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 12:03:32</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 12:03:39</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 12:03:40</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 12:03:50</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 16:28:07</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 16:28:11</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 16:28:18</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 16:28:21</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 16:28:48</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 16:29:10</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 16:29:33</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 16:29:35</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 16:29:36</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 16:29:46</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 16:29:53</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 16:30:01</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 16:30:02</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 16:30:12</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 16:58:57</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 16:59:00</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 16:59:03</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 16:59:06</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 16:59:32</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 16:59:54</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 17:00:15</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 17:00:17</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 17:00:27</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 17:00:38</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 17:00:45</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 17:00:46</t>
-  </si>
-  <si>
-    <t>Success - 2020/12/19 17:00:56</t>
+    <t>Success - 2020/12/13 16:04:46</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 16:04:54</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 16:04:59</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 16:05:04</t>
+  </si>
+  <si>
+    <t>Failure - 2020/12/13 16:05:38</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 16:06:24</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 16:06:32</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 16:06:43</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 16:06:50</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 16:07:26</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 16:07:55</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 16:08:23</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 16:08:28</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 16:08:30</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 16:08:31</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 16:08:53</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 16:09:14</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 16:09:36</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 16:09:38</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 16:09:40</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 16:09:42</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/13 16:09:57</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/17 12:52:15</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/17 12:52:30</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/17 12:53:33</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/17 12:53:41</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/17 12:53:48</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/17 12:53:54</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/17 12:54:31</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/17 12:55:01</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/17 12:55:29</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/17 12:55:35</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/17 12:55:36</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/17 12:55:38</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/17 12:56:02</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/17 12:56:22</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/17 12:56:41</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/17 12:56:43</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/17 12:56:45</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/17 12:56:46</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/17 12:57:00</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/20 10:45:17</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/20 10:45:25</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/20 10:45:30</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/20 10:45:36</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/20 10:46:10</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/20 10:46:36</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/20 10:47:01</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/20 10:47:05</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/20 10:47:07</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/20 10:47:08</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/20 10:47:27</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/20 10:47:42</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/20 10:47:57</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/20 10:47:59</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/20 10:48:00</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/20 10:48:01</t>
+  </si>
+  <si>
+    <t>Success - 2020/12/20 10:48:15</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +959,7 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1135,10 +985,10 @@
         <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1152,16 +1002,16 @@
         <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1196,18 +1046,18 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
         <v>97</v>
       </c>
-      <c r="B2" t="s">
-        <v>98</v>
-      </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1218,7 +1068,7 @@
         <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1288,7 +1138,7 @@
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -1312,77 +1162,77 @@
         <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
         <v>72</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>73</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>74</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="K3" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
         <v>99</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" t="s">
         <v>100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" t="s">
-        <v>102</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="K4" t="s">
-        <v>233</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1447,56 +1297,56 @@
         <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G3" t="s">
-        <v>234</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>234</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1577,7 +1427,7 @@
         <v>50</v>
       </c>
       <c r="P1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1627,18 +1477,18 @@
         <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>235</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
@@ -1650,45 +1500,45 @@
         <v>53</v>
       </c>
       <c r="G3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" t="s">
         <v>84</v>
       </c>
-      <c r="H3" t="s">
-        <v>85</v>
-      </c>
       <c r="I3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" t="s">
         <v>94</v>
-      </c>
-      <c r="J3" t="s">
-        <v>95</v>
       </c>
       <c r="K3" t="s">
         <v>57</v>
       </c>
       <c r="L3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="O3" t="s">
         <v>53</v>
       </c>
       <c r="P3" t="s">
-        <v>236</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
         <v>51</v>
@@ -1700,16 +1550,16 @@
         <v>53</v>
       </c>
       <c r="G4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" t="s">
         <v>86</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>87</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>88</v>
-      </c>
-      <c r="J4" t="s">
-        <v>89</v>
       </c>
       <c r="K4" t="s">
         <v>57</v>
@@ -1718,16 +1568,16 @@
         <v>58</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="O4" t="s">
         <v>53</v>
       </c>
       <c r="P4" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1758,19 +1608,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
         <v>109</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>110</v>
-      </c>
-      <c r="C1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" t="s">
-        <v>112</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -1778,19 +1628,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>114</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
